--- a/data/trans_bre/IP1020-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/IP1020-Habitat-trans_bre.xlsx
@@ -610,7 +610,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>10/50</t>
+          <t>Menos de 2</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -620,42 +620,42 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-0,57</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>2,23</t>
+          <t>-3,86</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,59</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-2,05</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>-25,94%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>345,25%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>39,84%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>-42,62%</t>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -668,42 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-2,74; 1,64</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,44; 4,71</t>
+          <t>-19,77; 0,0</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-1,46; 2,63</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-4,88; 0,69</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-79,12; 151,52</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-49,69; —</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-64,76; 400,42</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-76,72; 28,75</t>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -810,7 +810,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Capitales</t>
+          <t>10/50</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -820,42 +820,42 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-0,27</t>
+          <t>-0,57</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-0,01</t>
+          <t>2,23</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-1,09</t>
+          <t>0,59</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-0,77</t>
+          <t>-2,05</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-42,13%</t>
+          <t>-25,94%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-0,51%</t>
+          <t>345,25%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>-50,06%</t>
+          <t>39,84%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>-21,6%</t>
+          <t>-42,62%</t>
         </is>
       </c>
     </row>
@@ -868,49 +868,49 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-1,29; 0,91</t>
+          <t>-2,74; 1,64</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-2,56; 2,91</t>
+          <t>0,44; 4,71</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-3,3; 0,89</t>
+          <t>-1,46; 2,63</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-3,6; 2,24</t>
+          <t>-4,88; 0,69</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-79,12; 151,52</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-67,01; 208,48</t>
+          <t>-49,69; —</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 213,2</t>
+          <t>-64,76; 400,42</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-73,76; 132,36</t>
+          <t>-76,72; 28,75</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Menos de 2</t>
+          <t>mas de 50</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -920,42 +920,42 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,32</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-3,86</t>
+          <t>1,7</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,16</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,6</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-100,0%</t>
+          <t>253,85%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>10,3%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>106,6%</t>
         </is>
       </c>
     </row>
@@ -968,49 +968,49 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
+          <t>-1,56; 0,0</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>-0,33; 3,92</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>-2,04; 2,24</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>-0,6; 6,15</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>-19,77; 0,0</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>-100,0; —</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-28,96; 509,05</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>mas de 50</t>
+          <t>Capitales</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1020,42 +1020,42 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-0,32</t>
+          <t>-0,27</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>1,7</t>
+          <t>-0,01</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,16</t>
+          <t>-1,09</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>2,6</t>
+          <t>-0,77</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>-100,0%</t>
+          <t>-42,13%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>253,85%</t>
+          <t>-0,51%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>10,3%</t>
+          <t>-50,06%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>106,6%</t>
+          <t>-21,6%</t>
         </is>
       </c>
     </row>
@@ -1068,22 +1068,22 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-1,56; 0,0</t>
+          <t>-1,29; 0,91</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-0,33; 3,92</t>
+          <t>-2,56; 2,91</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-2,04; 2,24</t>
+          <t>-3,3; 0,89</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-0,6; 6,15</t>
+          <t>-3,6; 2,24</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -1093,17 +1093,17 @@
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-100,0; —</t>
+          <t>-67,01; 208,48</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; 213,2</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-28,96; 509,05</t>
+          <t>-73,76; 132,36</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/IP1020-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/IP1020-Habitat-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J15"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -673,7 +673,7 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-19,77; 0,0</t>
+          <t>-20,02; 0,0</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
@@ -768,22 +768,22 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 4,42</t>
+          <t>0,0; 4,37</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-1,01; 5,2</t>
+          <t>-0,85; 5,63</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-5,02; -0,53</t>
+          <t>-4,85; -0,53</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-0,39; 7,98</t>
+          <t>-0,49; 7,6</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -793,17 +793,17 @@
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
+          <t>-100,0; —</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="I7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-54,49; —</t>
+          <t>-81,49; —</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-2,74; 1,64</t>
+          <t>-2,78; 1,41</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0,44; 4,71</t>
+          <t>0,49; 4,83</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-1,46; 2,63</t>
+          <t>-1,45; 2,7</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-4,88; 0,69</t>
+          <t>-4,97; 0,94</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-79,12; 151,52</t>
+          <t>-84,42; 160,89</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-49,69; —</t>
+          <t>-23,54; —</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-64,76; 400,42</t>
+          <t>-58,2; 513,69</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-76,72; 28,75</t>
+          <t>-76,28; 36,75</t>
         </is>
       </c>
     </row>
@@ -968,22 +968,22 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-1,56; 0,0</t>
+          <t>-1,96; 0,0</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-0,33; 3,92</t>
+          <t>-0,14; 4,32</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-2,04; 2,24</t>
+          <t>-2,11; 2,06</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-0,6; 6,15</t>
+          <t>-0,58; 6,21</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -993,17 +993,17 @@
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-100,0; —</t>
+          <t>-68,28; —</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-80,92; 408,94</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-28,96; 509,05</t>
+          <t>-29,29; 556,96</t>
         </is>
       </c>
     </row>
@@ -1068,22 +1068,22 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-1,29; 0,91</t>
+          <t>-1,54; 1,02</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-2,56; 2,91</t>
+          <t>-2,7; 2,81</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-3,3; 0,89</t>
+          <t>-3,41; 0,92</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-3,6; 2,24</t>
+          <t>-4,05; 2,19</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -1093,17 +1093,17 @@
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-67,01; 208,48</t>
+          <t>-69,47; 194,63</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 213,2</t>
+          <t>-91,51; 222,49</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-73,76; 132,36</t>
+          <t>-79,04; 133,49</t>
         </is>
       </c>
     </row>
@@ -1168,42 +1168,49 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-0,89; 0,78</t>
+          <t>-0,87; 0,68</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>0,1; 2,48</t>
+          <t>-0,11; 2,46</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-1,34; 0,6</t>
+          <t>-1,45; 0,53</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-1,34; 1,98</t>
+          <t>-1,54; 1,84</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-72,25; 158,21</t>
+          <t>-68,25; 124,9</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>2,58; 292,55</t>
+          <t>-10,25; 256,29</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-62,44; 61,85</t>
+          <t>-64,44; 49,06</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-35,46; 74,51</t>
+          <t>-39,14; 78,34</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/IP1020-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/IP1020-Habitat-trans_bre.xlsx
@@ -566,7 +566,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -586,7 +586,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -610,7 +610,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Menos de 2</t>
+          <t>&lt;2.000hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -673,7 +673,7 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-20,02; 0,0</t>
+          <t>-16,99; 0,0</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
@@ -710,7 +710,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2/10</t>
+          <t>2-10.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -773,17 +773,17 @@
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-0,85; 5,63</t>
+          <t>-0,6; 5,45</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-4,85; -0,53</t>
+          <t>-5,05; 0,0</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-0,49; 7,6</t>
+          <t>-0,23; 7,53</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -793,7 +793,7 @@
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-100,0; —</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
@@ -803,14 +803,14 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-81,49; —</t>
+          <t>-86,59; 2010,74</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10/50</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -868,49 +868,49 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-2,78; 1,41</t>
+          <t>-2,58; 1,37</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0,49; 4,83</t>
+          <t>0,34; 4,6</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-1,45; 2,7</t>
+          <t>-1,24; 2,73</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-4,97; 0,94</t>
+          <t>-5,33; 0,84</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-84,42; 160,89</t>
+          <t>-83,68; 158,94</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-23,54; —</t>
+          <t>-34,34; —</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-58,2; 513,69</t>
+          <t>-59,13; 521,66</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-76,28; 36,75</t>
+          <t>-78,1; 38,94</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>mas de 50</t>
+          <t>&gt;50.000hab</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -968,22 +968,22 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-1,96; 0,0</t>
+          <t>-1,83; 0,0</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-0,14; 4,32</t>
+          <t>-0,22; 4,05</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-2,11; 2,06</t>
+          <t>-2,29; 2,06</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-0,58; 6,21</t>
+          <t>-0,81; 6,27</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -993,17 +993,17 @@
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-68,28; —</t>
+          <t>-74,61; —</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-80,92; 408,94</t>
+          <t>-86,01; 428,9</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-29,29; 556,96</t>
+          <t>-30,52; 571,21</t>
         </is>
       </c>
     </row>
@@ -1068,22 +1068,22 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-1,54; 1,02</t>
+          <t>-1,32; 0,91</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-2,7; 2,81</t>
+          <t>-2,76; 2,62</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-3,41; 0,92</t>
+          <t>-3,22; 0,99</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-4,05; 2,19</t>
+          <t>-4,22; 2,25</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -1093,17 +1093,17 @@
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-69,47; 194,63</t>
+          <t>-72,01; 184,06</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-91,51; 222,49</t>
+          <t>-91,69; 234,02</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-79,04; 133,49</t>
+          <t>-74,06; 130,07</t>
         </is>
       </c>
     </row>
@@ -1168,42 +1168,42 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-0,87; 0,68</t>
+          <t>-0,87; 0,62</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-0,11; 2,46</t>
+          <t>0,13; 2,44</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-1,45; 0,53</t>
+          <t>-1,45; 0,55</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-1,54; 1,84</t>
+          <t>-1,67; 1,99</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-68,25; 124,9</t>
+          <t>-69,62; 153,95</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-10,25; 256,29</t>
+          <t>3,0; 260,88</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-64,44; 49,06</t>
+          <t>-66,1; 54,97</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-39,14; 78,34</t>
+          <t>-38,18; 74,37</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/IP1020-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/IP1020-Habitat-trans_bre.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal brecha" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Brecha de género" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:J14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -610,7 +610,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>&lt;2.000hab</t>
+          <t>&lt;10.000 hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -620,42 +620,42 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,05</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-3,86</t>
+          <t>0,71</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,54</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,43</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>inf%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
+          <t>46,32%</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
           <t>-100,0%</t>
         </is>
       </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>228,87%</t>
         </is>
       </c>
     </row>
@@ -668,49 +668,49 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
+          <t>0,0; 4,04</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>-1,81; 4,11</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>-4,82; -0,44</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>-0,0; 7,45</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>-16,99; 0,0</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>-100,0; —</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-61,6; —</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2-10.000 hab</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -720,42 +720,42 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>1,25</t>
+          <t>-0,57</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>1,62</t>
+          <t>2,23</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-1,86</t>
+          <t>0,59</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>2,7</t>
+          <t>-2,09</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>-25,94%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>150,44%</t>
+          <t>345,25%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>-100,0%</t>
+          <t>39,84%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>213,26%</t>
+          <t>-42,81%</t>
         </is>
       </c>
     </row>
@@ -768,49 +768,49 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 4,37</t>
+          <t>-2,74; 1,64</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-0,6; 5,45</t>
+          <t>0,44; 4,71</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-5,05; 0,0</t>
+          <t>-1,46; 2,63</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-0,23; 7,53</t>
+          <t>-4,91; 0,7</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-79,12; 151,52</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-49,69; —</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-64,76; 400,42</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-86,59; 2010,74</t>
+          <t>-76,7; 32,0</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10-50.000 hab</t>
+          <t>&gt;50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -820,42 +820,42 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-0,57</t>
+          <t>-0,32</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>2,23</t>
+          <t>1,7</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,59</t>
+          <t>0,16</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-2,05</t>
+          <t>2,03</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-25,94%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>345,25%</t>
+          <t>253,85%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>39,84%</t>
+          <t>10,3%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>-42,62%</t>
+          <t>85,98%</t>
         </is>
       </c>
     </row>
@@ -868,49 +868,49 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-2,58; 1,37</t>
+          <t>-1,56; 0,0</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0,34; 4,6</t>
+          <t>-0,33; 3,92</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-1,24; 2,73</t>
+          <t>-2,04; 2,24</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-5,33; 0,84</t>
+          <t>-1,18; 5,51</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-83,68; 158,94</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-34,34; —</t>
+          <t>-100,0; —</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-59,13; 521,66</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-78,1; 38,94</t>
+          <t>-39,84; 457,46</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>&gt;50.000hab</t>
+          <t>Capitales</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -920,42 +920,42 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-0,32</t>
+          <t>-0,27</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>1,7</t>
+          <t>-0,01</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0,16</t>
+          <t>-1,09</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>2,6</t>
+          <t>-0,84</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-100,0%</t>
+          <t>-42,13%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>253,85%</t>
+          <t>-0,51%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>10,3%</t>
+          <t>-50,06%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>106,6%</t>
+          <t>-23,49%</t>
         </is>
       </c>
     </row>
@@ -968,22 +968,22 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-1,83; 0,0</t>
+          <t>-1,29; 0,91</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-0,22; 4,05</t>
+          <t>-2,56; 2,91</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-2,29; 2,06</t>
+          <t>-3,3; 0,89</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-0,81; 6,27</t>
+          <t>-3,72; 2,09</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -993,24 +993,24 @@
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-74,61; —</t>
+          <t>-67,01; 208,48</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-86,01; 428,9</t>
+          <t>-100,0; 213,2</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-30,52; 571,21</t>
+          <t>-74,44; 126,27</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Capitales</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1020,42 +1020,42 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-0,27</t>
+          <t>-0,1</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-0,01</t>
+          <t>1,19</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-1,09</t>
+          <t>-0,39</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>-0,77</t>
+          <t>0,11</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>-42,13%</t>
+          <t>-11,41%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>-0,51%</t>
+          <t>84,7%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>-50,06%</t>
+          <t>-22,83%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>-21,6%</t>
+          <t>3,24%</t>
         </is>
       </c>
     </row>
@@ -1068,154 +1068,54 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-1,32; 0,91</t>
+          <t>-0,89; 0,78</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-2,76; 2,62</t>
+          <t>0,1; 2,48</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-3,22; 0,99</t>
+          <t>-1,34; 0,6</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-4,22; 2,25</t>
+          <t>-1,38; 1,88</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-72,25; 158,21</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-72,01; 184,06</t>
+          <t>2,58; 292,55</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-91,69; 234,02</t>
+          <t>-62,44; 61,85</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-74,06; 130,07</t>
+          <t>-36,46; 76,63</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B14" s="3" t="inlineStr">
-        <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C14" s="2" t="inlineStr">
-        <is>
-          <t>-0,1</t>
-        </is>
-      </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>1,19</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>-0,39</t>
-        </is>
-      </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>0,18</t>
-        </is>
-      </c>
-      <c r="G14" s="2" t="inlineStr">
-        <is>
-          <t>-11,41%</t>
-        </is>
-      </c>
-      <c r="H14" s="2" t="inlineStr">
-        <is>
-          <t>84,7%</t>
-        </is>
-      </c>
-      <c r="I14" s="2" t="inlineStr">
-        <is>
-          <t>-22,83%</t>
-        </is>
-      </c>
-      <c r="J14" s="2" t="inlineStr">
-        <is>
-          <t>5,31%</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n"/>
-      <c r="B15" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C15" s="2" t="inlineStr">
-        <is>
-          <t>-0,87; 0,62</t>
-        </is>
-      </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>0,13; 2,44</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>-1,45; 0,55</t>
-        </is>
-      </c>
-      <c r="F15" s="2" t="inlineStr">
-        <is>
-          <t>-1,67; 1,99</t>
-        </is>
-      </c>
-      <c r="G15" s="2" t="inlineStr">
-        <is>
-          <t>-69,62; 153,95</t>
-        </is>
-      </c>
-      <c r="H15" s="2" t="inlineStr">
-        <is>
-          <t>3,0; 260,88</t>
-        </is>
-      </c>
-      <c r="I15" s="2" t="inlineStr">
-        <is>
-          <t>-66,1; 54,97</t>
-        </is>
-      </c>
-      <c r="J15" s="2" t="inlineStr">
-        <is>
-          <t>-38,18; 74,37</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
+      <c r="A14" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="8">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
@@ -1224,7 +1124,6 @@
     <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
